--- a/biology/Zoologie/Cheilio/Cheilio.xlsx
+++ b/biology/Zoologie/Cheilio/Cheilio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheilio inermis · Labre cigare, Longue girelle
 Cheilio inermis, communément nommé Labre cigare ou Longue girelle, est une espèce de poissons marins de la famille des Labridae. C'est la seule espèce de son genre Cheilio.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille maximale est de 50 cm mais sa taille moyenne commune est de 35 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille maximale est de 50 cm mais sa taille moyenne commune est de 35 cm.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Labre cigare est présent dans les eaux tropicales de la région Indo-Pacifique, mer Rouge incluse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Labre cigare est présent dans les eaux tropicales de la région Indo-Pacifique, mer Rouge incluse.
 </t>
         </is>
       </c>
